--- a/DOC/Barchart.xlsx
+++ b/DOC/Barchart.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/horus/Documents/GitHub/dbExelExportLaravel/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96ACD22A-B2FD-BB41-B8CB-9864DBF3D7CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B9F021-7E5D-EE4F-8F48-7339A30E2EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{9217FDA2-7813-8B4E-B8ED-7FBA2629B6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$C$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$C$29</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$D$2:$D$29</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$E$2:$E$29</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$29</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$2:$E$29</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$C$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$29</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$29</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Phase</t>
   </si>
@@ -119,12 +104,6 @@
     <t>Tests anlegen, um Qualität zu planen</t>
   </si>
   <si>
-    <t>Projektdurchführung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Analyse</t>
-  </si>
-  <si>
     <t>AP A1</t>
   </si>
   <si>
@@ -246,6 +225,15 @@
   </si>
   <si>
     <t>Abnahme</t>
+  </si>
+  <si>
+    <t>Abweichung</t>
+  </si>
+  <si>
+    <t>AP D</t>
+  </si>
+  <si>
+    <t>AP PA</t>
   </si>
 </sst>
 </file>
@@ -298,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -382,6 +370,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDBDBDB"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -415,7 +412,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -548,19 +545,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$C$29</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Sheet1!$C$2:$C$29</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>AP PI1</c:v>
                 </c:pt>
@@ -588,63 +575,69 @@
                 <c:pt idx="8">
                   <c:v>AP A1</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>AP E1</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>AP E1</c:v>
+                  <c:v>AP E2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AP E2</c:v>
+                  <c:v>AP E3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>AP E3</c:v>
+                  <c:v>AP E4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>AP E4</c:v>
+                  <c:v>AP E5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>AP E5</c:v>
+                  <c:v>AP E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>AP E6</c:v>
+                  <c:v>AP I1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AP I1</c:v>
+                  <c:v>AP I2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>AP I2</c:v>
+                  <c:v>AP I3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>AP I3</c:v>
+                  <c:v>AP I4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>AP I4</c:v>
+                  <c:v>AP I5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>AP I5</c:v>
+                  <c:v>AP I6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>AP I6</c:v>
+                  <c:v>AP I7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AP I7</c:v>
+                  <c:v>AP T1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>AP T1</c:v>
+                  <c:v>AP T2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>AP T2</c:v>
+                  <c:v>AP T3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>AP T3</c:v>
+                  <c:v>AP D</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP PA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$29</c:f>
+              <c:f>Sheet1!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -672,17 +665,20 @@
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -691,25 +687,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2</c:v>
@@ -721,9 +717,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -761,19 +754,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$C$29</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Sheet1!$C$2:$C$29</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>AP PI1</c:v>
                 </c:pt>
@@ -801,63 +784,69 @@
                 <c:pt idx="8">
                   <c:v>AP A1</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>AP E1</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>AP E1</c:v>
+                  <c:v>AP E2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AP E2</c:v>
+                  <c:v>AP E3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>AP E3</c:v>
+                  <c:v>AP E4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>AP E4</c:v>
+                  <c:v>AP E5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>AP E5</c:v>
+                  <c:v>AP E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>AP E6</c:v>
+                  <c:v>AP I1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AP I1</c:v>
+                  <c:v>AP I2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>AP I2</c:v>
+                  <c:v>AP I3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>AP I3</c:v>
+                  <c:v>AP I4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>AP I4</c:v>
+                  <c:v>AP I5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>AP I5</c:v>
+                  <c:v>AP I6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>AP I6</c:v>
+                  <c:v>AP I7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>AP I7</c:v>
+                  <c:v>AP T1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>AP T1</c:v>
+                  <c:v>AP T2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>AP T2</c:v>
+                  <c:v>AP T3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>AP T3</c:v>
+                  <c:v>AP D</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP PA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$29</c:f>
+              <c:f>Sheet1!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -885,17 +874,20 @@
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
@@ -904,25 +896,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2</c:v>
@@ -934,9 +926,6 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -945,6 +934,207 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4A4B-0745-98D2-0E0C97671392}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Abweichung in Stunden</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>AP PI1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AP PI2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AP P1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AP P2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AP P3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AP P4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AP P5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AP P6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AP A1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AP E1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AP E2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AP E3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AP E4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AP E5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AP E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AP I1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AP I2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>AP I3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AP I4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AP I5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>AP I6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>AP I7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>AP T1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>AP T2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>AP T3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>AP D</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP PA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C82-3948-9E79-F660A563EA72}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1002,14 +1192,14 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="999502064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="1000"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1061,7 +1251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="999500432"/>
@@ -1103,7 +1293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1133,7 +1323,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1691,16 +1881,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>660400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2027,13 +2217,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70718D-91EF-BE4C-ADE3-399EAFBB3FF7}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2049,8 +2239,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2066,8 +2259,12 @@
       <c r="E2" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2081,8 +2278,12 @@
       <c r="E3" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F28" si="0">E3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2098,8 +2299,12 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
@@ -2113,8 +2318,12 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -2128,8 +2337,12 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -2143,8 +2356,12 @@
       <c r="E7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
@@ -2158,8 +2375,12 @@
       <c r="E8" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -2173,16 +2394,18 @@
       <c r="E9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -2190,19 +2413,35 @@
       <c r="E10" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>28</v>
@@ -2211,15 +2450,19 @@
         <v>28</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>30</v>
@@ -2228,15 +2471,19 @@
         <v>30</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>32</v>
@@ -2250,10 +2497,14 @@
       <c r="E14" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
@@ -2262,15 +2513,19 @@
         <v>34</v>
       </c>
       <c r="D15" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -2284,16 +2539,20 @@
       <c r="E16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2301,10 +2560,14 @@
       <c r="E17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>41</v>
@@ -2313,15 +2576,19 @@
         <v>41</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -2330,15 +2597,19 @@
         <v>43</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>45</v>
@@ -2346,16 +2617,20 @@
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>47</v>
@@ -2363,16 +2638,20 @@
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>49</v>
@@ -2380,16 +2659,20 @@
       <c r="C22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>51</v>
@@ -2397,34 +2680,40 @@
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D23" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>56</v>
       </c>
@@ -2437,8 +2726,12 @@
       <c r="E25" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>58</v>
@@ -2452,27 +2745,37 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
         <v>2</v>
@@ -2480,21 +2783,22 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>SUM(D2:D28)</f>
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E2:E28)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>1</v>
       </c>
@@ -2563,7 +2867,7 @@
         <v>9</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2577,7 +2881,7 @@
         <v>11</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
@@ -2585,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="7:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
@@ -2593,7 +2897,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
@@ -2601,7 +2905,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2913,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="7:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
@@ -2617,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
@@ -2625,7 +2929,7 @@
         <v>17</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="7:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
@@ -2633,7 +2937,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="7:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
@@ -2641,7 +2945,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
@@ -2649,7 +2953,7 @@
         <v>20</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
@@ -2657,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="7:8" ht="113" thickBot="1" x14ac:dyDescent="0.25">
@@ -2665,7 +2969,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
@@ -2673,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
@@ -2681,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2993,7 @@
         <v>25</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2697,7 +3001,7 @@
         <v>26</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
@@ -2705,7 +3009,7 @@
         <v>27</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2713,15 +3017,11 @@
         <v>28</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
+  <mergeCells count="1">
     <mergeCell ref="H57:H58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/Barchart.xlsx
+++ b/DOC/Barchart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/horus/Documents/GitHub/dbExelExportLaravel/DOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horus\Documents\GitHub\dbExelExportLaravel\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B9F021-7E5D-EE4F-8F48-7339A30E2EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765E7DA-AFE3-4CCA-A6A1-7935654545DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{9217FDA2-7813-8B4E-B8ED-7FBA2629B6F4}"/>
+    <workbookView xWindow="4500" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{9217FDA2-7813-8B4E-B8ED-7FBA2629B6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Phase</t>
   </si>
@@ -53,9 +51,6 @@
     <t>Projektinitialisierung</t>
   </si>
   <si>
-    <t>AP PI1</t>
-  </si>
-  <si>
     <t>Kick-off Meeting mit dem Kunden durchführen</t>
   </si>
   <si>
@@ -125,93 +120,45 @@
     <t>Eigenschaften des Models festlegen</t>
   </si>
   <si>
-    <t>AP E3</t>
-  </si>
-  <si>
     <t>Formular mit Auswahlmöglichkeit zur Generierung entwerfen</t>
   </si>
   <si>
-    <t>AP E4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menüpunkt und Controller entwerfen </t>
   </si>
   <si>
-    <t>AP E5</t>
-  </si>
-  <si>
     <t>Download von Excel-Fähiger Datei konzipieren</t>
   </si>
   <si>
-    <t>AP E6</t>
-  </si>
-  <si>
     <t>Layout mit Kunde absprechen</t>
   </si>
   <si>
-    <t xml:space="preserve">        Implementierung</t>
-  </si>
-  <si>
-    <t>AP I1</t>
-  </si>
-  <si>
     <t>Route zum Formular und zum Download anlegen</t>
   </si>
   <si>
-    <t>AP I2</t>
-  </si>
-  <si>
     <t>View-Oberfläche entwickeln und mit Kunde abstimmen</t>
   </si>
   <si>
-    <t>AP I3</t>
-  </si>
-  <si>
     <t>Mapping implementieren</t>
   </si>
   <si>
-    <t>AP I4</t>
-  </si>
-  <si>
     <t>Controller erstellen</t>
   </si>
   <si>
-    <t>AP I5</t>
-  </si>
-  <si>
     <t>View anlegen</t>
   </si>
   <si>
-    <t>AP I6</t>
-  </si>
-  <si>
     <t>Funktion implementieren, die die angefertigte Datei als Download bereitstellt</t>
   </si>
   <si>
-    <t>AP I7</t>
-  </si>
-  <si>
     <t>Qualitätssicherung durch automatisierte Tests</t>
   </si>
   <si>
-    <t>Testphase mit Nutzertests</t>
-  </si>
-  <si>
-    <t>AP T1</t>
-  </si>
-  <si>
     <t>Funktionalität</t>
   </si>
   <si>
-    <t>AP T2</t>
-  </si>
-  <si>
     <t>Sicherheit</t>
   </si>
   <si>
-    <t>AP T3</t>
-  </si>
-  <si>
     <t>Integrität</t>
   </si>
   <si>
@@ -221,28 +168,53 @@
     <t>Dokumentation erstellen</t>
   </si>
   <si>
-    <t>Projektabschluss</t>
-  </si>
-  <si>
     <t>Abnahme</t>
   </si>
   <si>
     <t>Abweichung</t>
   </si>
   <si>
-    <t>AP D</t>
-  </si>
-  <si>
-    <t>AP PA</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Initialisierung</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Entwurf</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Pufferzeit</t>
+  </si>
+  <si>
+    <t>Projektdokumentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -383,43 +355,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +419,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -508,7 +486,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -547,114 +525,66 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>AP PI1</c:v>
+                  <c:v>Initialisierung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AP PI2</c:v>
+                  <c:v>Planung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AP P1</c:v>
+                  <c:v>Analyse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AP P2</c:v>
+                  <c:v>Entwurf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AP P3</c:v>
+                  <c:v>Implementierung</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AP P4</c:v>
+                  <c:v>Test</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AP P5</c:v>
+                  <c:v>Dokumentation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AP P6</c:v>
+                  <c:v>Abschluss</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AP A1</c:v>
+                  <c:v>Pufferzeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>AP E1</c:v>
+                  <c:v>Projektdokumentation</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AP E2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AP E3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>AP E4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AP E5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>AP E6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AP I1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>AP I2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>AP I3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>AP I4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AP I5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>AP I6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>AP I7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>AP T1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>AP T2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>AP T3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>AP D</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>AP PA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$28</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -663,61 +593,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,177 +635,78 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>AP PI1</c:v>
+                  <c:v>Initialisierung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AP PI2</c:v>
+                  <c:v>Planung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AP P1</c:v>
+                  <c:v>Analyse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AP P2</c:v>
+                  <c:v>Entwurf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AP P3</c:v>
+                  <c:v>Implementierung</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AP P4</c:v>
+                  <c:v>Test</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AP P5</c:v>
+                  <c:v>Dokumentation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AP P6</c:v>
+                  <c:v>Abschluss</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AP A1</c:v>
+                  <c:v>Pufferzeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>AP E1</c:v>
+                  <c:v>Projektdokumentation</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AP E2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AP E3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>AP E4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AP E5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>AP E6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AP I1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>AP I2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>AP I3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>AP I4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AP I5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>AP I6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>AP I7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>AP T1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>AP T2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>AP T3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>AP D</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>AP PA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$28</c:f>
+              <c:f>Sheet1!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,97 +737,49 @@
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>AP PI1</c:v>
+                  <c:v>Initialisierung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AP PI2</c:v>
+                  <c:v>Planung</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AP P1</c:v>
+                  <c:v>Analyse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AP P2</c:v>
+                  <c:v>Entwurf</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AP P3</c:v>
+                  <c:v>Implementierung</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AP P4</c:v>
+                  <c:v>Test</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AP P5</c:v>
+                  <c:v>Dokumentation</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AP P6</c:v>
+                  <c:v>Abschluss</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AP A1</c:v>
+                  <c:v>Pufferzeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>AP E1</c:v>
+                  <c:v>Projektdokumentation</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>AP E2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AP E3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>AP E4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AP E5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>AP E6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AP I1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>AP I2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>AP I3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>AP I4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AP I5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>AP I6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>AP I7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>AP T1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>AP T2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>AP T3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>AP D</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>AP PA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$28</c:f>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1055,78 +787,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1146,8 +827,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="74"/>
+        <c:overlap val="-19"/>
         <c:axId val="999500432"/>
         <c:axId val="999502064"/>
       </c:barChart>
@@ -1192,7 +873,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="999502064"/>
@@ -1200,6 +881,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="1000"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1251,7 +933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="999500432"/>
@@ -1293,7 +975,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1323,7 +1005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2217,13 +1899,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B70718D-91EF-BE4C-ADE3-399EAFBB3FF7}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,153 +1922,153 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+      <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>E2-D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="0">E3-D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.5</v>
-      </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
+      <c r="B7" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
+      <c r="B8" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
+      <c r="B9" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2399,55 +2081,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
+      <c r="B10" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2460,564 +2142,348 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>SUM(D2:D28)</f>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <f>SUM(E2:E28)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>4</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="7:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="7:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="7:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>6</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="7:8" ht="193" thickBot="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G55">
         <v>7</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G56">
         <v>8</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>9</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="7:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G58">
         <v>10</v>
       </c>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G59">
         <v>11</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G60">
         <v>12</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="7:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="7:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G61">
         <v>13</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="7:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G62">
         <v>14</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="7:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G63">
         <v>15</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="7:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="7:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G64">
         <v>16</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G65">
         <v>17</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="7:8" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G66">
         <v>18</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G67">
         <v>19</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68">
         <v>20</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G69">
         <v>21</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="7:8" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G70">
         <v>22</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71">
         <v>23</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G72">
         <v>24</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G73">
         <v>25</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>26</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="7:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G75">
         <v>27</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="7:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G76">
         <v>28</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
